--- a/sriramModel-nelson-melancholic-patientID_17-sims-acth-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_17-sims-acth-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.80400909134001</v>
+        <v>20.84846599880462</v>
       </c>
       <c r="C2">
-        <v>20.81245120094457</v>
+        <v>20.90285749514148</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>20.93020506143001</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>20.79304080426564</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20.90045744455397</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.94783369297596</v>
+        <v>21.04785483430159</v>
       </c>
       <c r="C3">
-        <v>20.96667951351991</v>
+        <v>21.15511737671418</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>21.20179112661069</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>20.92423956382987</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>21.15370311306397</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.1313011540527</v>
+        <v>21.29756558211176</v>
       </c>
       <c r="C4">
-        <v>21.16229858842363</v>
+        <v>21.45641799078679</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>21.51416771071039</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>21.09321348534614</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>21.45944625072243</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.35424574799362</v>
+        <v>21.59703700146225</v>
       </c>
       <c r="C5">
-        <v>21.39893645814857</v>
+        <v>21.80640275180643</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>21.86677834871215</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>21.29959446128436</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>21.81740944968311</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.61650744539979</v>
+        <v>21.94574081068844</v>
       </c>
       <c r="C6">
-        <v>21.67623469189265</v>
+        <v>22.20471794608892</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>22.25909584946544</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>21.54302712059304</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>22.2273274675224</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.9179307264017</v>
+        <v>22.34317619496473</v>
       </c>
       <c r="C7">
-        <v>21.99384761463351</v>
+        <v>22.65101093645612</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>22.69061887335145</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>21.82316674642948</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>22.68894594216099</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.25836341154818</v>
+        <v>22.78886525398785</v>
       </c>
       <c r="C8">
-        <v>22.35144156488219</v>
+        <v>23.14492821291621</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>23.16086932741783</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>22.13967818662567</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>23.20201957071174</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.63765547448068</v>
+        <v>23.28234723292093</v>
       </c>
       <c r="C9">
-        <v>22.74869416680531</v>
+        <v>23.68611290021605</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>23.66938921554001</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>22.49223446086339</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>23.76631053365849</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.05565780612873</v>
+        <v>23.82317467275824</v>
       </c>
       <c r="C10">
-        <v>23.18529363547605</v>
+        <v>24.27420221767909</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>24.21573811948625</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>22.88051541043974</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>24.3815864807506</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.51222090049078</v>
+        <v>24.41090928533877</v>
       </c>
       <c r="C11">
-        <v>23.66093809533811</v>
+        <v>24.90882494752549</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>24.79949053854395</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>23.30420646877169</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>25.04761807643062</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.00719342910559</v>
+        <v>25.04511754585427</v>
       </c>
       <c r="C12">
-        <v>24.17533490038756</v>
+        <v>25.58959859812487</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>25.42023344631879</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>23.76299748471438</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>25.76417638458258</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.54042067011362</v>
+        <v>25.72536633333615</v>
       </c>
       <c r="C13">
-        <v>24.72819996413966</v>
+        <v>26.31612641153805</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>26.07756379371619</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>24.25658158581325</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>26.53102962465025</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.11174275431306</v>
+        <v>26.45121846574572</v>
       </c>
       <c r="C14">
-        <v>25.31925708602977</v>
+        <v>27.08799409271304</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>26.7710858799371</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>24.78465392898005</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>27.34793916600708</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.72099268555556</v>
+        <v>27.22222815172135</v>
       </c>
       <c r="C15">
-        <v>25.94823726829125</v>
+        <v>27.90476626703414</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>27.50040879672375</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>25.34691044095321</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>28.2146547703462</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.36799408846727</v>
+        <v>28.03793617815275</v>
       </c>
       <c r="C16">
-        <v>26.61487802012327</v>
+        <v>28.76598262170931</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>28.26514374272217</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>25.94304654090074</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>29.13090881089696</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.05255862937364</v>
+        <v>28.8978646625574</v>
       </c>
       <c r="C17">
-        <v>27.31892264023021</v>
+        <v>29.67115366819766</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>29.06490138442654</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>26.57275573818606</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>30.09640921392209</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.77448304768263</v>
+        <v>29.80151127321497</v>
       </c>
       <c r="C18">
-        <v>28.06011946739876</v>
+        <v>30.61975605443406</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>29.89928855867165</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>27.23572825936924</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>31.1108309255431</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.53354572797645</v>
+        <v>30.74834294435668</v>
       </c>
       <c r="C19">
-        <v>28.83822108697002</v>
+        <v>31.61122734815452</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>30.76790472759697</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>27.93164941980577</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>32.17380545347537</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.32950273036246</v>
+        <v>31.73778889439662</v>
       </c>
       <c r="C20">
-        <v>29.65298347816959</v>
+        <v>32.64496020248971</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>31.67033833961136</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>28.66019779866447</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>33.28490822438373</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.16208318532649</v>
+        <v>32.76923280606793</v>
       </c>
       <c r="C21">
-        <v>30.50416508430321</v>
+        <v>33.72029580316874</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>32.60616282358742</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>29.42104295603768</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>34.44364327488388</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.03098394885633</v>
+        <v>33.84200400818347</v>
       </c>
       <c r="C22">
-        <v>31.39152577766004</v>
+        <v>34.83651648474034</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>33.57493203454981</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>30.21384338079448</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>35.64942460649631</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.93586339369468</v>
+        <v>34.95536751755904</v>
       </c>
       <c r="C23">
-        <v>32.31482569554616</v>
+        <v>35.99283739173313</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>34.57617495584358</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>31.03824404956397</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>36.90155396284775</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.87633420174042</v>
+        <v>36.1085126925373</v>
       </c>
       <c r="C24">
-        <v>33.27382389729548</v>
+        <v>37.18839701825913</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>35.609389652475</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>31.89387353099408</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>38.19919396068491</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>33.85195500644201</v>
+        <v>37.30054035244415</v>
       </c>
       <c r="C25">
-        <v>34.26827680917818</v>
+        <v>38.42224771119248</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>36.6740363578662</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>32.7803406740914</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>39.54133609349326</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>34.86222071196517</v>
+        <v>38.53044811570827</v>
       </c>
       <c r="C26">
-        <v>35.29793637051626</v>
+        <v>39.69334065885754</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>37.76952957902168</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>33.69723078639742</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>40.9267630308318</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>35.90655130842519</v>
+        <v>39.797113708086</v>
       </c>
       <c r="C27">
-        <v>36.3625478312736</v>
+        <v>41.00051347684987</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>38.89522899268897</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>34.64410138943133</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>42.35400399759912</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>36.98427898599881</v>
+        <v>41.09927598599185</v>
       </c>
       <c r="C28">
-        <v>37.46184705776399</v>
+        <v>42.34247878650657</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>40.05042884574525</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>35.62047713778378</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>43.82128316509832</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>38.09463333839851</v>
+        <v>42.43551342005158</v>
       </c>
       <c r="C29">
-        <v>38.59555725289879</v>
+        <v>43.71780215942914</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>41.23434570809045</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>36.62584412532605</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>45.32646037632904</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>39.23672445618575</v>
+        <v>43.80421982074325</v>
       </c>
       <c r="C30">
-        <v>39.76338489611144</v>
+        <v>45.1248829509244</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>42.44610429298194</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>37.65964321325065</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>46.86696385470005</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>40.40952371220784</v>
+        <v>45.20357710797418</v>
       </c>
       <c r="C31">
-        <v>40.96501461207492</v>
+        <v>46.56193578738779</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>43.68472107089398</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>38.7212622932207</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>48.43971621745107</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>41.61184207088619</v>
+        <v>46.63152493640886</v>
       </c>
       <c r="C32">
-        <v>42.20010281171045</v>
+        <v>48.02696640655361</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>44.94908536347323</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>39.81002727004221</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>50.04105419332249</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>42.84230581728288</v>
+        <v>48.08572723420924</v>
       </c>
       <c r="C33">
-        <v>43.46826958143728</v>
+        <v>49.51774485094009</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>46.23793759825525</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>40.92519168323499</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>51.6666453883089</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>44.09932966875416</v>
+        <v>49.56353577043469</v>
       </c>
       <c r="C34">
-        <v>44.76908832551253</v>
+        <v>51.03177776065223</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>47.54984441710894</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>42.06592462893293</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>53.31140599695322</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>45.3810873767719</v>
+        <v>51.06195116976155</v>
       </c>
       <c r="C35">
-        <v>46.1020725027589</v>
+        <v>52.56627945502782</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>48.88317036516003</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>43.23129647883813</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>54.96942581811762</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>46.68548010938475</v>
+        <v>52.57758213611427</v>
       </c>
       <c r="C36">
-        <v>47.46665849988094</v>
+        <v>54.11814152665752</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>50.23604595656334</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>44.42026252716337</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>56.63390886535098</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>48.01010314507693</v>
+        <v>54.1066041154173</v>
       </c>
       <c r="C37">
-        <v>48.86218345418782</v>
+        <v>55.68390022815575</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>51.60633203924891</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>45.63164391337966</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>58.29714062650809</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>49.35221175861005</v>
+        <v>55.64471928586313</v>
       </c>
       <c r="C38">
-        <v>50.28785637472242</v>
+        <v>57.25970365423547</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>52.99158058599775</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>46.86410551131902</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>59.9504963176531</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>50.70868758563886</v>
+        <v>57.18712039899226</v>
       </c>
       <c r="C39">
-        <v>51.74272039607037</v>
+        <v>58.84128253875571</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>54.38899235027099</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>48.11613021468917</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>61.58450079436168</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>52.07600726859145</v>
+        <v>58.72846205642369</v>
       </c>
       <c r="C40">
-        <v>53.22560356794046</v>
+        <v>60.42392458080091</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>55.79537227174874</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>49.38599005909747</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>63.188958699068</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>53.4502157699705</v>
+        <v>60.26284389092287</v>
       </c>
       <c r="C41">
-        <v>54.73505431689524</v>
+        <v>62.00245371582541</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>57.20708414024407</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>50.67171218138478</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>64.75316149433885</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>54.82690735698986</v>
+        <v>61.78381002652839</v>
       </c>
       <c r="C42">
-        <v>56.26925720934884</v>
+        <v>63.57121795772216</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>58.62000685487904</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>51.97104070466651</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>66.26617433921029</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>56.20121790688694</v>
+        <v>63.28437432890981</v>
       </c>
       <c r="C43">
-        <v>57.82592333656892</v>
+        <v>65.12409006382448</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>60.02949538463545</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>53.28139411449555</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>67.71720193706355</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>57.56783261840678</v>
+        <v>64.75707827168918</v>
       </c>
       <c r="C44">
-        <v>59.40214884844416</v>
+        <v>66.65448406432773</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>61.43034953280279</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>54.59981812979389</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>69.09600627245534</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>58.92101350703361</v>
+        <v>66.19407782914517</v>
       </c>
       <c r="C45">
-        <v>60.99423472119147</v>
+        <v>68.15539515575716</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>62.81680316653156</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>55.92293480714994</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>70.39335173045522</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>60.25465113645343</v>
+        <v>67.58727923706168</v>
       </c>
       <c r="C46">
-        <v>62.59746177372936</v>
+        <v>69.61946702533776</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>64.18253063096842</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>57.24688928580643</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>71.60143049157833</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>61.56234365986987</v>
+        <v>68.92851846281872</v>
       </c>
       <c r="C47">
-        <v>64.20581839455808</v>
+        <v>71.03908219384847</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>65.52068408084993</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>58.56729686162323</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>72.71422524496388</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>62.83750569619313</v>
+        <v>70.20978319970199</v>
       </c>
       <c r="C48">
-        <v>65.81168676408822</v>
+        <v>72.40649178183796</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>66.82397121109894</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>59.87919263798238</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>73.72776617760248</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>64.07350661987695</v>
+        <v>71.42347133926393</v>
       </c>
       <c r="C49">
-        <v>67.40550881596775</v>
+        <v>73.71398126511329</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>68.08477932300849</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>61.17698999975993</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>74.64024066089256</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>65.26383518015493</v>
+        <v>72.56267188031289</v>
       </c>
       <c r="C50">
-        <v>68.97547919427318</v>
+        <v>74.95406781082525</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>69.29534862415942</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>62.45445993890005</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>75.45197048021008</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>66.40228377344093</v>
+        <v>73.62144917374285</v>
       </c>
       <c r="C51">
-        <v>70.5073489641097</v>
+        <v>76.11972944033712</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>70.44799899950905</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>63.70473854262276</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>76.16524546980298</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>67.48314220923893</v>
+        <v>74.59510578863213</v>
       </c>
       <c r="C52">
-        <v>71.98446585867738</v>
+        <v>77.20465414918058</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>71.53540179438859</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>64.92036751865378</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>76.78404286858708</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>68.56404891462053</v>
+        <v>75.53200713167584</v>
       </c>
       <c r="C53">
-        <v>73.50465277158501</v>
+        <v>78.26114758905197</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>72.62702677122141</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>66.18821530834369</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>77.33305541165211</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>69.68751473728018</v>
+        <v>76.46393618190159</v>
       </c>
       <c r="C54">
-        <v>75.13303269016664</v>
+        <v>79.32406620325928</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>73.77183979105671</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>67.57666948734536</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>77.82883511995526</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>70.82730712427035</v>
+        <v>77.36598955530914</v>
       </c>
       <c r="C55">
-        <v>76.79947595217797</v>
+        <v>80.36434109459562</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>74.93411232978929</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>69.04877502278678</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>78.26700383981584</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>71.95989035323164</v>
+        <v>78.21830957395996</v>
       </c>
       <c r="C56">
-        <v>78.43438248615251</v>
+        <v>81.35713747158793</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>76.0816027764036</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>70.56647693811814</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>78.64627548049125</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>73.06487555592837</v>
+        <v>79.0061302533108</v>
       </c>
       <c r="C57">
-        <v>79.97490995594083</v>
+        <v>82.28242594531812</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>77.1865180558318</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>72.09182083637639</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>78.96767386992914</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>74.12530359019281</v>
+        <v>79.71953851489089</v>
       </c>
       <c r="C58">
-        <v>81.37092799832659</v>
+        <v>83.1252974439186</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>78.22623908353394</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>73.58841409635774</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>79.23384024400933</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>75.12774950449696</v>
+        <v>80.35299517003163</v>
       </c>
       <c r="C59">
-        <v>82.58908216235911</v>
+        <v>83.87598609272013</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>79.18368070125173</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>75.02303451384421</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>79.44845955349021</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>76.06225564592921</v>
+        <v>80.90469652271192</v>
       </c>
       <c r="C60">
-        <v>83.61389131325053</v>
+        <v>84.52959237186153</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>80.04728851842857</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>76.36718501182075</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>79.61580455366565</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>76.92211610814195</v>
+        <v>81.37584693682797</v>
       </c>
       <c r="C61">
-        <v>84.44585439409688</v>
+        <v>85.08554680911712</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>80.81069367909605</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>77.59839935157818</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>79.74039307523819</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>77.70354635411466</v>
+        <v>81.76991938606803</v>
       </c>
       <c r="C62">
-        <v>85.09751369419681</v>
+        <v>85.54685572487917</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>81.4720894867279</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>78.70107198775447</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>79.82672949374148</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>78.40527690923651</v>
+        <v>82.09196187421171</v>
       </c>
       <c r="C63">
-        <v>85.58882562781002</v>
+        <v>85.91924391805087</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>82.03342804311593</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>79.66667936032755</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>79.87914940787287</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>79.02811034877335</v>
+        <v>82.34799066088482</v>
       </c>
       <c r="C64">
-        <v>85.94297897250729</v>
+        <v>86.21027347256123</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>82.4995379176839</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>80.4933650399125</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>79.90171096940105</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>79.5744758881103</v>
+        <v>82.54449099382593</v>
       </c>
       <c r="C65">
-        <v>86.1832755476967</v>
+        <v>86.42852430493524</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>82.87725532086849</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>81.18498391736091</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>79.89813271882279</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>80.04800882137371</v>
+        <v>82.68803111233552</v>
       </c>
       <c r="C66">
-        <v>86.33118736863568</v>
+        <v>86.58290391588012</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>83.17463827593129</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>81.74979588505801</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>79.87177432187687</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>80.45317363478517</v>
+        <v>82.78498227518945</v>
       </c>
       <c r="C67">
-        <v>86.40539913444287</v>
+        <v>86.68211615330992</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>83.4003066379797</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>82.19903251904752</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>79.82563363439637</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>80.79494155181121</v>
+        <v>82.84133159219401</v>
       </c>
       <c r="C68">
-        <v>86.42153878064767</v>
+        <v>86.73429631438066</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>83.56292600549632</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>82.5455401196255</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>79.76236137416987</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>81.07852638600851</v>
+        <v>82.86257019524575</v>
       </c>
       <c r="C69">
-        <v>86.39231809665144</v>
+        <v>86.74679485288701</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>83.67083316153688</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>82.80264030608988</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>79.6842847585403</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>81.30917735107637</v>
+        <v>82.85363974778204</v>
       </c>
       <c r="C70">
-        <v>86.32787538276492</v>
+        <v>86.7260810427892</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>83.7317881306392</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>82.98327503460071</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>79.59343520226079</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>81.4920239592693</v>
+        <v>82.81891981847589</v>
       </c>
       <c r="C71">
-        <v>86.2361858822991</v>
+        <v>86.67773411571244</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>83.75283066509343</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>83.09944038295997</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>79.49157830217375</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>81.63196614906258</v>
+        <v>82.76224568529693</v>
       </c>
       <c r="C72">
-        <v>86.12346445199141</v>
+        <v>86.60649138679386</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>83.74021769122916</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>83.16187062386831</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>79.38024343526487</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>81.73360200543695</v>
+        <v>82.68694463612029</v>
       </c>
       <c r="C73">
-        <v>85.99452421536358</v>
+        <v>86.51632739566037</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>83.69941859082053</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>83.1799156029471</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>79.26075197186857</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>81.80118551286783</v>
+        <v>82.59588001438063</v>
       </c>
       <c r="C74">
-        <v>85.8530786262431</v>
+        <v>86.41054786673736</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>83.63514877079217</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>83.1615522415091</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>79.1342434527545</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>81.8386074044609</v>
+        <v>82.49150088632116</v>
       </c>
       <c r="C75">
-        <v>85.70198704870046</v>
+        <v>86.29188607560017</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>83.55142998650742</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>83.11347847765418</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>79.00169930689556</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>81.84939309030797</v>
+        <v>82.37589212034023</v>
       </c>
       <c r="C76">
-        <v>85.54344983440679</v>
+        <v>86.16259233763087</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>83.45166055903869</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>83.04124884059995</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>78.86396399660345</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>81.83671263175074</v>
+        <v>82.25082172179172</v>
       </c>
       <c r="C77">
-        <v>85.37916089667441</v>
+        <v>86.02451455205903</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>83.33868964827948</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>82.94942938238354</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>78.72176388503325</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>81.80339876080086</v>
+        <v>82.11778479106948</v>
       </c>
       <c r="C78">
-        <v>85.21042581157961</v>
+        <v>85.87916860146032</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>83.21489147634952</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>82.84174784250354</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>78.5757237750927</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>81.75196988477317</v>
+        <v>81.97804304046785</v>
       </c>
       <c r="C79">
-        <v>85.03825261504126</v>
+        <v>85.72779801651272</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>83.08223431484069</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>82.7212324313704</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>78.42638098975186</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>81.68465561553472</v>
+        <v>81.83265972954338</v>
       </c>
       <c r="C80">
-        <v>84.8634213252169</v>
+        <v>85.57142355951564</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>82.94234308646823</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>82.59033539482598</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>78.27419770190345</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>81.60342323948197</v>
+        <v>81.68253008386422</v>
       </c>
       <c r="C81">
-        <v>84.68653705078358</v>
+        <v>85.41088440277196</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>82.79655485340325</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>82.45103855019195</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>78.11957179758062</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>81.51000388413625</v>
+        <v>81.52840753852644</v>
       </c>
       <c r="C82">
-        <v>84.5080704908919</v>
+        <v>85.24687183008469</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>82.64596696075556</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>82.30494192496249</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>77.96284604004897</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>81.40591761486296</v>
+        <v>81.37092621149193</v>
       </c>
       <c r="C83">
-        <v>84.32838887348505</v>
+        <v>85.07995655903237</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>82.4914782930758</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>82.15333709507949</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>77.80431591405925</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>81.2924969596553</v>
+        <v>81.21061993104581</v>
       </c>
       <c r="C84">
-        <v>84.14777957327247</v>
+        <v>84.91061111835268</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>82.33382411050944</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>81.99726712124755</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>77.64423635318784</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>81.17090859945752</v>
+        <v>81.04793838732085</v>
       </c>
       <c r="C85">
-        <v>83.96646818002054</v>
+        <v>84.73922782037627</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>82.17360533992611</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>81.83757527161657</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>77.48282758725898</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>81.0421422021079</v>
+        <v>80.88325803113827</v>
       </c>
       <c r="C86">
-        <v>83.78463221569478</v>
+        <v>84.56613059089841</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>82.01131094400283</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>81.67494250682556</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>77.32027798113701</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>80.90707270393183</v>
+        <v>80.71689586025585</v>
       </c>
       <c r="C87">
-        <v>83.60241200453335</v>
+        <v>84.3915902102038</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>81.84734098038516</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>81.5099186649544</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>77.15675027439528</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>80.76649622670686</v>
+        <v>80.54912506969919</v>
       </c>
       <c r="C88">
-        <v>83.4199188635335</v>
+        <v>84.21583707251415</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>81.68202430902819</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>81.34295732695415</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>76.99238914594385</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>80.62110625492751</v>
+        <v>80.38017501993056</v>
       </c>
       <c r="C89">
-        <v>83.23724127625201</v>
+        <v>84.03906524231888</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>81.51562896991311</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>81.17442531983998</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>76.82731949184507</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>80.47150702887392</v>
+        <v>80.21024081046625</v>
       </c>
       <c r="C90">
-        <v>83.05444980316798</v>
+        <v>83.8614377177438</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>81.34837641539036</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>81.00462342905593</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>76.66164918708434</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>80.31822553311706</v>
+        <v>80.0394882502727</v>
       </c>
       <c r="C91">
-        <v>82.87160087231575</v>
+        <v>83.68309205708402</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>81.1804461817222</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>80.83379658123398</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>76.49547304726904</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>80.16172158486475</v>
+        <v>79.86805667306018</v>
       </c>
       <c r="C92">
-        <v>82.68873980103787</v>
+        <v>83.50414561274791</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>81.01198465220868</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>80.66214492619731</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>76.32887322836683</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>80.00239671229396</v>
+        <v>79.69606484541926</v>
       </c>
       <c r="C93">
-        <v>82.50590302994753</v>
+        <v>83.32469864752274</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>80.84311285140913</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>80.48983359410452</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>76.16192075260565</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>79.8406019158095</v>
+        <v>79.52361448265903</v>
       </c>
       <c r="C94">
-        <v>82.32311998215539</v>
+        <v>83.14483578562457</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>80.67393053081749</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>80.31699915950114</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>75.99467773460105</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>79.67664425915362</v>
+        <v>79.35079240451309</v>
       </c>
       <c r="C95">
-        <v>82.14041449657695</v>
+        <v>82.96462969927876</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>80.50451974934812</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>80.14375453773746</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>75.82719861231517</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>79.51079259738746</v>
+        <v>79.17767258995865</v>
       </c>
       <c r="C96">
-        <v>81.95780590844936</v>
+        <v>82.78414306536106</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>80.33494776767341</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>79.9701926374541</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>75.65953111752606</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>79.34328262591404</v>
+        <v>79.00431851943239</v>
       </c>
       <c r="C97">
-        <v>81.77530994868332</v>
+        <v>82.60343001935671</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>80.16527017836152</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>79.79639032349908</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>75.49171722890804</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>79.17432118168375</v>
+        <v>78.83078480555896</v>
       </c>
       <c r="C98">
-        <v>81.5929394561615</v>
+        <v>82.42253756265617</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>79.9955333621798</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>79.62241186840899</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>75.32379359617696</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>79.00408995902571</v>
+        <v>78.65711854333546</v>
       </c>
       <c r="C99">
-        <v>81.41070493476221</v>
+        <v>82.24150624758759</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>79.82577604230548</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>79.44831148084982</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>75.15579285896438</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>78.8327487576516</v>
+        <v>78.48335914850595</v>
       </c>
       <c r="C100">
-        <v>81.22861499424231</v>
+        <v>82.0603713205025</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>79.65603039309018</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>79.2741348499741</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>74.98774263670927</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>78.66043827595027</v>
+        <v>78.30954165990681</v>
       </c>
       <c r="C101">
-        <v>81.04667670555001</v>
+        <v>81.87916349636586</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>79.48632308669733</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>79.09992028165709</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>74.81966802507247</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>78.48728254234946</v>
+        <v>78.13569575254407</v>
       </c>
       <c r="C102">
-        <v>80.86489589050629</v>
+        <v>81.69790909000513</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>79.31667631460172</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>78.92569959822835</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>74.65159077806373</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>78.31339101186137</v>
+        <v>77.96184780585487</v>
       </c>
       <c r="C103">
-        <v>80.6832773495898</v>
+        <v>81.51663191020201</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>79.14710857947843</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>78.7514995843607</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>74.48353039623608</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>78.13886039992626</v>
+        <v>77.78802049620859</v>
       </c>
       <c r="C104">
-        <v>80.50182504573513</v>
+        <v>81.33535267351343</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>78.97763558570998</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>78.57734302527479</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>74.31550418731547</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>77.96377626035049</v>
+        <v>77.61423376928666</v>
       </c>
       <c r="C105">
-        <v>80.3205422563002</v>
+        <v>81.1540899525222</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>78.80827034825096</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>78.40324908384827</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>74.14752768087799</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>77.78821436816226</v>
+        <v>77.44050474560481</v>
       </c>
       <c r="C106">
-        <v>80.13943169362605</v>
+        <v>80.97285993916529</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>78.639024242235</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>78.22923454569212</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>73.97961447182516</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>77.61224191363999</v>
+        <v>77.26684826060109</v>
       </c>
       <c r="C107">
-        <v>79.95849560362493</v>
+        <v>80.79167693048871</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>78.46990662869224</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>78.05531315596141</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>73.8117765977797</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>77.43591854852311</v>
+        <v>77.09327723371113</v>
       </c>
       <c r="C108">
-        <v>79.77773584690893</v>
+        <v>80.61055356128639</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>78.30092553294058</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>77.88149738831075</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>73.64402471774505</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>77.25929729225069</v>
+        <v>76.91980295075069</v>
       </c>
       <c r="C109">
-        <v>79.59715396419239</v>
+        <v>80.42950102416135</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>78.13208776644854</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>77.70779723915985</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>73.47636827393822</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>77.08242532651485</v>
+        <v>76.74643515282024</v>
       </c>
       <c r="C110">
-        <v>79.41675123041418</v>
+        <v>80.24852929286645</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>77.96339889404688</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>77.53422166034001</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>73.30881566132494</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>76.90534468608675</v>
+        <v>76.57318274524744</v>
       </c>
       <c r="C111">
-        <v>79.23652869914807</v>
+        <v>80.06764739259421</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>77.79486378613879</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>77.36077806107879</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>73.14137442356021</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>76.72809286428269</v>
+        <v>76.40005316332943</v>
       </c>
       <c r="C112">
-        <v>79.05648723887377</v>
+        <v>79.88686313824392</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>77.62648645637316</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>77.18747287788952</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>72.97405111526825</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>76.55070334193448</v>
+        <v>76.22705313650992</v>
       </c>
       <c r="C113">
-        <v>78.87662756334578</v>
+        <v>79.70618397685476</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>77.45827040286525</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>77.01431168842277</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>72.80685192741213</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>76.37320605055625</v>
+        <v>76.05418917282501</v>
       </c>
       <c r="C114">
-        <v>78.69695025643351</v>
+        <v>79.52561619286918</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>77.29021858904601</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>76.8412992515299</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>72.63978218782346</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>76.19562777920321</v>
+        <v>75.88146575976344</v>
       </c>
       <c r="C115">
-        <v>78.51745579273961</v>
+        <v>79.34516572022957</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>77.12233361595446</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>76.66843980456387</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>72.47284654166621</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>76.01799253020167</v>
+        <v>75.70888829382108</v>
       </c>
       <c r="C116">
-        <v>78.338144554937</v>
+        <v>79.16483783501894</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>76.95461768123118</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>76.49573692416959</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>72.30604988800329</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>75.84032183342499</v>
+        <v>75.53646061650306</v>
       </c>
       <c r="C117">
-        <v>78.15901684799464</v>
+        <v>78.98463715735427</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>76.78707268135675</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>76.32319379183242</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>72.13939546361206</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>75.66263502028121</v>
+        <v>75.364186283854</v>
       </c>
       <c r="C118">
-        <v>77.9800729111513</v>
+        <v>78.80456804281479</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>76.61970024273161</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>76.15081311702825</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>71.97288722436953</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>75.48494946623374</v>
+        <v>75.19206869478424</v>
       </c>
       <c r="C119">
-        <v>77.80131292797877</v>
+        <v>78.62463423735757</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>76.45250172732705</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>75.97859725148487</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>71.80652840852369</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>75.30728080803488</v>
+        <v>75.02011042948237</v>
       </c>
       <c r="C120">
-        <v>77.62273703472272</v>
+        <v>78.44483925630379</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>76.28547831990741</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>75.80654825301339</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>71.64032151552451</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>75.12964313277656</v>
+        <v>74.84831404575542</v>
       </c>
       <c r="C121">
-        <v>77.44434532738521</v>
+        <v>78.26518620884956</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>76.11863101915542</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>75.63466789067174</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>71.47426928813353</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>74.95204914095679</v>
+        <v>74.67668169641286</v>
       </c>
       <c r="C122">
-        <v>77.26613786767443</v>
+        <v>78.08567798407138</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>75.95196069138976</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>75.46295772298367</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>71.30837390290171</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>74.77451029270981</v>
+        <v>74.5052153256039</v>
       </c>
       <c r="C123">
-        <v>77.08811468791362</v>
+        <v>77.90631714380015</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>75.78546807480447</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>75.29141910033216</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>71.14263736610725</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>74.59703694019979</v>
+        <v>74.33391667894743</v>
       </c>
       <c r="C124">
-        <v>76.91027579540896</v>
+        <v>77.72710610574931</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>75.61915381233926</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>75.12005320946542</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>70.97706150358357</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>74.4196384448403</v>
+        <v>74.16278726090748</v>
       </c>
       <c r="C125">
-        <v>76.73262117615256</v>
+        <v>77.54804701681749</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>75.45301844695703</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>74.94886108606319</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>70.81164794349992</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>74.24232327962052</v>
+        <v>73.99182855413915</v>
       </c>
       <c r="C126">
-        <v>76.55515079774558</v>
+        <v>77.3691418598092</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>75.28706244279201</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>74.77784362148961</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>70.64639818345542</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>74.06509911937529</v>
+        <v>73.82104171146351</v>
       </c>
       <c r="C127">
-        <v>76.37786461188571</v>
+        <v>77.1903924573929</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>75.12128619391019</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>74.60700160619116</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>70.48131355143862</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>73.88797292168393</v>
+        <v>73.65042788870642</v>
       </c>
       <c r="C128">
-        <v>76.20076255659791</v>
+        <v>77.01180043410598</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>74.95569002636235</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>74.43633571217933</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>70.31639526243636</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>73.71095099937104</v>
+        <v>73.47998810563749</v>
       </c>
       <c r="C129">
-        <v>76.02384455818327</v>
+        <v>76.83336731668157</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>74.79027421755785</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>74.26584653075558</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>70.15164448312549</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>73.53403908502686</v>
+        <v>73.30972316766064</v>
       </c>
       <c r="C130">
-        <v>75.84711053286459</v>
+        <v>76.6550944630448</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>74.62503899444441</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>74.09553457028608</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>69.98706212724514</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>73.35724238826293</v>
+        <v>73.13963389685449</v>
       </c>
       <c r="C131">
-        <v>75.67056038816014</v>
+        <v>76.47698314090499</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>74.45998454691687</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>73.92540027212982</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>69.8226491612382</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>73.18056564676542</v>
+        <v>72.96972094889792</v>
       </c>
       <c r="C132">
-        <v>75.49419402404469</v>
+        <v>76.2990344942645</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>74.29511102797954</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>73.75544401914294</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>69.65840640502159</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>73.0040131720438</v>
+        <v>72.79998493030079</v>
       </c>
       <c r="C133">
-        <v>75.31801133395346</v>
+        <v>76.12124958654323</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>74.13041856255674</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>73.58566613620536</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>69.49433455259988</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>72.82758889044203</v>
+        <v>72.63042637148563</v>
       </c>
       <c r="C134">
-        <v>75.14201220566248</v>
+        <v>75.94362937925005</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>73.96590724676294</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>73.41606690696462</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>69.33043428982599</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>72.65129637983996</v>
+        <v>72.46104574287267</v>
       </c>
       <c r="C135">
-        <v>74.96619652206424</v>
+        <v>75.76617476859626</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>73.80157715320027</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>73.24664656666589</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>69.16670619450657</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>72.47513890250494</v>
+        <v>72.29184346644631</v>
       </c>
       <c r="C136">
-        <v>74.79056416181571</v>
+        <v>75.58888656986485</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>73.6374283336782</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>73.07740531710897</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>69.0031507970391</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>72.29911943456567</v>
+        <v>72.12281990008927</v>
       </c>
       <c r="C137">
-        <v>74.61511499990149</v>
+        <v>75.41176553048663</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>73.47346081981507</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>72.90834332414592</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>68.83976857307579</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>72.12324069250968</v>
+        <v>71.95397538411085</v>
       </c>
       <c r="C138">
-        <v>74.43984890811942</v>
+        <v>75.23481234342427</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>73.30967462822173</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>72.73946072499307</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>68.67655995058516</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>71.94750515701968</v>
+        <v>71.78531020720963</v>
       </c>
       <c r="C139">
-        <v>74.26476575550637</v>
+        <v>75.05802763252453</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>73.14606975984296</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>72.57075763105938</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>68.51352531889032</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>71.77191509441893</v>
+        <v>71.61682461092123</v>
       </c>
       <c r="C140">
-        <v>74.08986540870988</v>
+        <v>74.88141198108806</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>72.98264620394076</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>72.40223412922536</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>68.3506650201554</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>71.59647257598134</v>
+        <v>71.44851883201639</v>
       </c>
       <c r="C141">
-        <v>73.91514773231071</v>
+        <v>74.70496591371838</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>72.81940393786296</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>72.23389028733769</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>68.18797936732489</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>71.42117949534268</v>
+        <v>71.28039304286102</v>
       </c>
       <c r="C142">
-        <v>73.74061258910291</v>
+        <v>74.52868991849073</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>72.65634292974323</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>72.06572615290268</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>68.02546865034066</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>71.24603758421867</v>
+        <v>71.11244741389493</v>
       </c>
       <c r="C143">
-        <v>73.56625984033791</v>
+        <v>74.35258443648179</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>72.4934631384241</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>71.89774175803606</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>67.86313310188454</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>71.07104842660539</v>
+        <v>70.94468208085311</v>
       </c>
       <c r="C144">
-        <v>73.39208934593809</v>
+        <v>74.17664987648219</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>72.3307645149731</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>71.72993711904076</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>67.70097295596676</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>70.89621347161717</v>
+        <v>70.77709715462214</v>
       </c>
       <c r="C145">
-        <v>73.2181009646842</v>
+        <v>74.000886608646</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>72.16824700360863</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>71.56231223897073</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>67.53898840766611</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>70.72153404510314</v>
+        <v>70.60969273034252</v>
       </c>
       <c r="C146">
-        <v>73.04429455438195</v>
+        <v>73.82529497360521</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>72.00591054188885</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>71.39486710902331</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>67.37717962286123</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>70.54701136016898</v>
+        <v>70.44246888291028</v>
       </c>
       <c r="C147">
-        <v>72.87066997200405</v>
+        <v>73.64987528184135</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>71.84375506221592</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>71.22760170828434</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>67.21554675745602</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>70.37264652671664</v>
+        <v>70.27542567335789</v>
       </c>
       <c r="C148">
-        <v>72.69722707381808</v>
+        <v>73.47462781464372</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>71.68178049131822</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>71.06051600825106</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>67.05408993811288</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>70.19844056010012</v>
+        <v>70.10856314632348</v>
       </c>
       <c r="C149">
-        <v>72.52396571549819</v>
+        <v>73.29955283067248</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>71.51998675274048</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>70.89360997051266</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>66.89280927878816</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>70.02439438898587</v>
+        <v>69.94188133391651</v>
       </c>
       <c r="C150">
-        <v>72.35088575222366</v>
+        <v>73.12465056094744</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>71.35837376533246</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>70.72688354766781</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>66.73170487570046</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>69.85050886249662</v>
+        <v>69.77538025948316</v>
       </c>
       <c r="C151">
-        <v>72.17798703876608</v>
+        <v>72.94992121802036</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>71.19694144410566</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>70.56033669031673</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>66.57077680969235</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>69.67678475670985</v>
+        <v>69.60905992815165</v>
       </c>
       <c r="C152">
-        <v>72.00526942956634</v>
+        <v>72.77536499054573</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>71.03568970362926</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>70.39396933570238</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>66.4100251506455</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>69.50322278057422</v>
+        <v>69.44292034278203</v>
       </c>
       <c r="C153">
-        <v>71.83273277880282</v>
+        <v>72.60098205074669</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>70.87461845203244</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>70.22778142069339</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>66.2494499527393</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>69.32982358130018</v>
+        <v>69.27696149214873</v>
       </c>
       <c r="C154">
-        <v>71.66037694045178</v>
+        <v>72.42677255079937</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>70.71372759765916</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>70.06177287710625</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>66.08905126148659</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>69.15658774927553</v>
+        <v>69.1111833568222</v>
       </c>
       <c r="C155">
-        <v>71.48820176834104</v>
+        <v>72.25273662805999</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>70.5530170472355</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>69.89594362678062</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>65.9288291131832</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>68.98351582255131</v>
+        <v>68.9455859114945</v>
       </c>
       <c r="C156">
-        <v>71.31620711619755</v>
+        <v>72.0788744033818</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>70.39248670216244</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>69.73029359289255</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>65.76878352899352</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>68.81060829093892</v>
+        <v>68.78016912123441</v>
       </c>
       <c r="C157">
-        <v>71.14439283769042</v>
+        <v>71.90518598349617</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>70.23213646545351</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>69.56482269212212</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>65.60891452740988</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>68.63786559975489</v>
+        <v>68.61493294651885</v>
       </c>
       <c r="C158">
-        <v>70.97275878646819</v>
+        <v>71.73167146201612</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>70.07196623733405</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>69.39953083715154</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>65.44922211526719</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>68.46528815324649</v>
+        <v>68.44987734102305</v>
       </c>
       <c r="C159">
-        <v>70.80130481619288</v>
+        <v>71.55833091905866</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>69.91197591590397</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>69.23441793905712</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>65.2897062913611</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>68.29287631772696</v>
+        <v>68.28500225350365</v>
       </c>
       <c r="C160">
-        <v>70.63003078057027</v>
+        <v>71.38516442413679</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>69.75216539920025</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>69.06948390470515</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>65.13036704963525</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>68.12063042444974</v>
+        <v>68.12030762815344</v>
       </c>
       <c r="C161">
-        <v>70.45893653337696</v>
+        <v>71.21217203435708</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>69.59253458358225</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>68.9047286394361</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>64.97120437519416</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>67.94855077224095</v>
+        <v>67.95579340381158</v>
       </c>
       <c r="C162">
-        <v>70.28802192848464</v>
+        <v>71.03935379778221</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>69.43308336466146</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>68.74015204611669</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>64.81221824893554</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>67.7766376299157</v>
+        <v>67.79145951685466</v>
       </c>
       <c r="C163">
-        <v>70.11728681988191</v>
+        <v>70.86670975156592</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>69.2738116374988</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>68.57575402500989</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>64.65340864573822</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>67.60489123849672</v>
+        <v>67.62730589839582</v>
       </c>
       <c r="C164">
-        <v>69.94673106169394</v>
+        <v>70.69423992478853</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>69.11471929594336</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>68.4115344756499</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>64.49477553518838</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>67.43331181325263</v>
+        <v>67.46333247706229</v>
       </c>
       <c r="C165">
-        <v>69.7763545082</v>
+        <v>70.52194433724981</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>68.955806233899</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>68.2474932950299</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>64.33631888331185</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>67.26189954557184</v>
+        <v>67.29953917847988</v>
       </c>
       <c r="C166">
-        <v>69.60615701384961</v>
+        <v>70.3498230012156</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>68.79707234458795</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>68.08363037881499</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>64.17803865061001</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>67.09065460468685</v>
+        <v>67.13592592441395</v>
       </c>
       <c r="C167">
-        <v>69.43613843327671</v>
+        <v>70.1778759212738</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>68.63851752036734</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>67.91994562201228</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>64.01993479482438</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>66.91957713925829</v>
+        <v>66.97249263513758</v>
       </c>
       <c r="C168">
-        <v>69.26629862131293</v>
+        <v>70.00610309486619</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>68.48014165392487</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>67.75643891713754</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>63.86200727008875</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>66.74866727879008</v>
+        <v>66.80923922770319</v>
       </c>
       <c r="C169">
-        <v>69.09663743299927</v>
+        <v>69.83450451309606</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>68.32194463719991</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>67.59311015670346</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>63.70425602606917</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>66.57792513508251</v>
+        <v>66.64616561741086</v>
       </c>
       <c r="C170">
-        <v>68.92715472359686</v>
+        <v>69.66308016039098</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>68.16392636186052</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>67.42995923186429</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>63.54668101087852</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>66.40735080345495</v>
+        <v>66.48327171752545</v>
       </c>
       <c r="C171">
-        <v>68.75785034859673</v>
+        <v>69.4918300158201</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>68.00608671967994</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>67.26698603260289</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>63.38928216883236</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>66.23694436378246</v>
+        <v>66.32055743931595</v>
       </c>
       <c r="C172">
-        <v>68.58872416372886</v>
+        <v>69.32075405238089</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>67.84842560191179</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>67.10419044855479</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>63.23205944179602</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>66.06670588182067</v>
+        <v>66.15802269280077</v>
       </c>
       <c r="C173">
-        <v>68.41977602497008</v>
+        <v>69.14985223838626</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>67.69094289994506</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>66.94157236839521</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>63.07501276966606</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>65.89663540983982</v>
+        <v>65.9956673860393</v>
       </c>
       <c r="C174">
-        <v>68.25100578855178</v>
+        <v>68.9791245363342</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>67.53363850505384</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>66.77913168030064</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>62.91814208946194</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>65.72673298768134</v>
+        <v>65.8334914261976</v>
       </c>
       <c r="C175">
-        <v>68.08241331096657</v>
+        <v>68.80857090502609</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>67.37651230839768</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>66.61686827201373</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>62.76144733679475</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>65.55699864365818</v>
+        <v>65.67149471905978</v>
       </c>
       <c r="C176">
-        <v>67.91399844897468</v>
+        <v>68.63819129907344</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>67.21956420126612</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>66.45478203057492</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>62.60492844516827</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>65.38743239524418</v>
+        <v>65.50967716910637</v>
       </c>
       <c r="C177">
-        <v>67.74576105960966</v>
+        <v>68.46798566785293</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>67.06279407492605</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>66.2928728429401</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>62.4485853463135</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>65.21803424982357</v>
+        <v>65.3480386802016</v>
       </c>
       <c r="C178">
-        <v>67.57770100018382</v>
+        <v>68.29795395726597</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>66.90620182069154</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>66.13114059559157</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>62.29241797077326</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>65.04880420542905</v>
+        <v>65.18657915485343</v>
       </c>
       <c r="C179">
-        <v>67.40981812829288</v>
+        <v>68.12809611097464</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>66.74978733008014</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>65.96958517462481</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>62.1364262471572</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>64.87974225127721</v>
+        <v>65.02529849510798</v>
       </c>
       <c r="C180">
-        <v>67.24211230182124</v>
+        <v>67.95841206842213</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>66.59355049457997</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>65.80820646615942</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>61.98061010326909</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>64.71084836834069</v>
+        <v>64.86419660213573</v>
       </c>
       <c r="C181">
-        <v>67.07458337894529</v>
+        <v>67.78890176357484</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>66.43749120591343</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>65.64700435585118</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>61.82496946559356</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>64.54212252994846</v>
+        <v>64.70327337639209</v>
       </c>
       <c r="C182">
-        <v>66.907231218139</v>
+        <v>67.61956513079245</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>66.2816093559809</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>65.48597872936368</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>61.66950425928093</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>64.37356470221572</v>
+        <v>64.54252871790686</v>
       </c>
       <c r="C183">
-        <v>66.74005567817603</v>
+        <v>67.45040210084214</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>66.12590483672882</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>65.32512947225749</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>61.51421440890818</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>64.20517484451915</v>
+        <v>64.38196252602114</v>
       </c>
       <c r="C184">
-        <v>66.57305661813379</v>
+        <v>67.28141259893518</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>65.97037754042212</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>65.16445646988208</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>61.35909983783699</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>64.0369529099644</v>
+        <v>64.22157469979614</v>
       </c>
       <c r="C185">
-        <v>66.40623389739719</v>
+        <v>67.11259655055261</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>65.81502735948341</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>65.00395960768627</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>61.20416046875405</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>63.86889884575665</v>
+        <v>64.06136513773642</v>
       </c>
       <c r="C186">
-        <v>66.23958737566059</v>
+        <v>66.94395387821682</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>65.65985418652295</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>64.84363877104046</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>61.04939622369065</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>63.70101259356015</v>
+        <v>63.90133373801433</v>
       </c>
       <c r="C187">
-        <v>66.07311691293194</v>
+        <v>66.77548450139201</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>65.50485791444015</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>64.68349384532297</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>60.89480702381789</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>63.53329408988264</v>
+        <v>63.74148039874714</v>
       </c>
       <c r="C188">
-        <v>65.90682236953485</v>
+        <v>66.60718833723894</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>65.35003843634388</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>64.52352471602312</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>60.74039278994798</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>63.36574326637395</v>
+        <v>63.58180501788473</v>
       </c>
       <c r="C189">
-        <v>65.74070360611148</v>
+        <v>66.43906530166376</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>65.19539564561364</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>64.36373126860478</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>60.58615344215666</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>63.19836005011771</v>
+        <v>63.42230749237827</v>
       </c>
       <c r="C190">
-        <v>65.57476048362541</v>
+        <v>66.27111530827116</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>65.04092943591618</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>64.2041133887123</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>60.43208890009247</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>63.03114436394036</v>
+        <v>63.26298771992246</v>
       </c>
       <c r="C191">
-        <v>65.40899286336339</v>
+        <v>66.10333826831882</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>64.8866397011582</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>64.04467096208556</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>60.27819908324256</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>62.8640961266635</v>
+        <v>63.10384559807743</v>
       </c>
       <c r="C192">
-        <v>65.24340060693832</v>
+        <v>65.93573409205206</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>64.73252633557902</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>63.88540387453913</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>60.12448391081326</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>62.69721525333554</v>
+        <v>62.9448810242277</v>
       </c>
       <c r="C193">
-        <v>65.07798357629092</v>
+        <v>65.76830268796114</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>64.57858923370357</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>63.72631201212451</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>59.97094330104819</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>62.53050165548241</v>
+        <v>62.78609389473207</v>
       </c>
       <c r="C194">
-        <v>64.91274163369208</v>
+        <v>65.60104396241866</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>64.42482829033801</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>63.56739526100684</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>59.81757717240215</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>62.36395524131903</v>
+        <v>62.62748410731326</v>
       </c>
       <c r="C195">
-        <v>64.74767464174514</v>
+        <v>65.43395782091081</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>64.27124340064108</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>63.40865350754027</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>59.66438544352607</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>62.19757591593347</v>
+        <v>62.46905155935336</v>
       </c>
       <c r="C196">
-        <v>64.58278246338753</v>
+        <v>65.26704416760921</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>64.11783446006778</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>63.25008663831444</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>59.51136803289653</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>62.03136358149261</v>
+        <v>62.31079614794498</v>
       </c>
       <c r="C197">
-        <v>64.41806496189309</v>
+        <v>65.10030290504349</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>63.96460136439974</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>63.09169454007738</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>59.35852485765642</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>61.86531813741952</v>
+        <v>62.15271777000419</v>
       </c>
       <c r="C198">
-        <v>64.25352200087379</v>
+        <v>64.93373393433927</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>63.81154400977081</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>62.9334770998534</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>59.20585583589475</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>61.69943948054245</v>
+        <v>61.99481632321077</v>
       </c>
       <c r="C199">
-        <v>64.08915344428149</v>
+        <v>64.76733715606196</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>63.65866229262976</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>62.77543420489128</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>59.05336088584666</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>61.53372750526258</v>
+        <v>61.83709170513579</v>
       </c>
       <c r="C200">
-        <v>63.92495915641013</v>
+        <v>64.60111246947568</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>63.50595610978945</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>62.6175657426756</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>58.90103992564642</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>61.36818210370468</v>
+        <v>61.67954381317669</v>
       </c>
       <c r="C201">
-        <v>63.76093900189704</v>
+        <v>64.43505977221056</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>63.35342535840767</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>62.45987160098493</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>58.74889287229618</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>61.20280316583655</v>
+        <v>61.52217254508951</v>
       </c>
       <c r="C202">
-        <v>63.59709284572508</v>
+        <v>64.269178961663</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>63.20106993597901</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>62.3023516678243</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>58.59691964395608</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>61.03759057960713</v>
+        <v>61.3649777988748</v>
       </c>
       <c r="C203">
-        <v>63.43342055322417</v>
+        <v>64.1034699341277</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>63.04888974038803</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>62.14500583151095</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>58.4451201587243</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>60.8725442310745</v>
+        <v>61.2079594726766</v>
       </c>
       <c r="C204">
-        <v>63.26992199007302</v>
+        <v>63.93793258470691</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>62.89688466988446</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>61.98783398068136</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>58.29349433474212</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>60.70766400450225</v>
+        <v>61.05111746470055</v>
       </c>
       <c r="C205">
-        <v>63.10659702230087</v>
+        <v>63.77256680792044</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>62.74505462308768</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>61.83083600428771</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>58.14204208964544</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>60.54294978247407</v>
+        <v>60.89445167356782</v>
       </c>
       <c r="C206">
-        <v>62.94344551628912</v>
+        <v>63.60737249759189</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>62.59339949892051</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>61.6740117914667</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>57.99076334188918</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>60.37840144600194</v>
+        <v>60.73796199810197</v>
       </c>
       <c r="C207">
-        <v>62.78046733877297</v>
+        <v>63.4423495467002</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>62.44191919678689</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>61.51736123177736</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>57.8396580098994</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>60.21401887460506</v>
+        <v>60.58164833735</v>
       </c>
       <c r="C208">
-        <v>62.61766235684309</v>
+        <v>63.27749784745049</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>62.29061361644979</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>61.36088421515348</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>57.68872601228055</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>60.04980194640546</v>
+        <v>60.42551059053746</v>
       </c>
       <c r="C209">
-        <v>62.45503043794724</v>
+        <v>63.11281729164349</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>62.13948265806649</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>61.204580631862</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>57.53796726760862</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>59.8857505382182</v>
+        <v>60.26954865735266</v>
       </c>
       <c r="C210">
-        <v>62.29257144989185</v>
+        <v>62.94830777043146</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>61.98852622205376</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>61.0484503723285</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>57.38738169496153</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>59.7218645256179</v>
+        <v>60.11376243774404</v>
       </c>
       <c r="C211">
-        <v>62.13028526084369</v>
+        <v>62.78396917416271</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>61.83774420938469</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>60.89249332745946</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>57.23696921358104</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>59.55814378301815</v>
+        <v>59.95815183184142</v>
       </c>
       <c r="C212">
-        <v>61.96817173933145</v>
+        <v>62.61980139298112</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>61.68713652138116</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>60.73670938857416</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>57.08672974296218</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>59.39458818374701</v>
+        <v>59.80271674012354</v>
       </c>
       <c r="C213">
-        <v>61.80623075424737</v>
+        <v>62.45580431649083</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>61.53670305977203</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>60.58109844732806</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>56.93666320265036</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>59.23119760010349</v>
+        <v>59.64745706350797</v>
       </c>
       <c r="C214">
-        <v>61.6444621748488</v>
+        <v>62.29197783367089</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>61.38644372659017</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>60.42566039560258</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>56.78676951277471</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>59.06797190342361</v>
+        <v>59.49237270321744</v>
       </c>
       <c r="C215">
-        <v>61.48286587075989</v>
+        <v>62.12832183318134</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>61.23635842437761</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>60.27039512574051</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>56.63704859368962</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>58.90491096414387</v>
+        <v>59.33746356064347</v>
       </c>
       <c r="C216">
-        <v>61.32144171197309</v>
+        <v>61.96483620338549</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>61.0864470560625</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>60.11530253050563</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>56.48750036603706</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>58.74201465184937</v>
+        <v>59.18272953771277</v>
       </c>
       <c r="C217">
-        <v>61.16018956885088</v>
+        <v>61.80152083220037</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>60.93670952498071</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>59.96038250301675</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>56.33812475054256</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>58.57928283532902</v>
+        <v>59.02817053668032</v>
       </c>
       <c r="C218">
-        <v>60.99910931212726</v>
+        <v>61.63837560709638</v>
       </c>
       <c r="D218">
-        <v>0</v>
+        <v>60.78714573484478</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>59.80563493671846</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>56.18892166860957</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>58.41671538262899</v>
+        <v>58.87378646015593</v>
       </c>
       <c r="C219">
-        <v>60.83820081290948</v>
+        <v>61.47540041543958</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>60.63775558981158</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>59.65105972548159</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>56.03989104189012</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>58.25431216109397</v>
+        <v>58.7195772110577</v>
       </c>
       <c r="C220">
-        <v>60.67746394267959</v>
+        <v>61.31259514426802</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>60.4885389944583</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>59.49665676359398</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>55.89103279235368</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>58.09207303741338</v>
+        <v>58.565542692784</v>
       </c>
       <c r="C221">
-        <v>60.51689857329614</v>
+        <v>61.14995968019539</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>60.33949585377769</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>59.3424259457311</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>55.74234684217779</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>57.92999787766661</v>
+        <v>58.41168280909905</v>
       </c>
       <c r="C222">
-        <v>60.35650457699575</v>
+        <v>60.98749390979698</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>60.19062607317679</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>59.18836716695377</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>55.59383311416247</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>57.7680865473578</v>
+        <v>58.25799746415027</v>
       </c>
       <c r="C223">
-        <v>60.1962818263948</v>
+        <v>60.82519771939597</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>60.04192955849246</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>59.03448032274387</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>55.44549153141681</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>57.60633891144976</v>
+        <v>58.10448656248364</v>
       </c>
       <c r="C224">
-        <v>60.03623019449112</v>
+        <v>60.66307099505911</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>59.8934062159938</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>58.88076530900634</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>55.2973220174138</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>57.44475483442221</v>
+        <v>57.95115000909438</v>
       </c>
       <c r="C225">
-        <v>59.87634955466556</v>
+        <v>60.50111362270764</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>59.74505595237851</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>58.72722202206153</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>55.14932449596711</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>57.28333418026345</v>
+        <v>57.79798770939134</v>
       </c>
       <c r="C226">
-        <v>59.71663978068376</v>
+        <v>60.33932548817504</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>59.59687867476939</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>58.57385035862909</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>55.00149889142109</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>57.12207681256182</v>
+        <v>57.64499956917187</v>
       </c>
       <c r="C227">
-        <v>59.55710074669781</v>
+        <v>60.17770647712965</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>59.44887429072455</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>58.42065021586726</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>54.85384512850538</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>56.9609825944837</v>
+        <v>57.49218549469722</v>
       </c>
       <c r="C228">
-        <v>59.39773232724796</v>
+        <v>60.0162564750611</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>59.30104270824744</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>58.26762149137591</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>54.70636313235785</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>56.80005138882205</v>
+        <v>57.33954539267729</v>
       </c>
       <c r="C229">
-        <v>59.23853439726431</v>
+        <v>59.8549753674768</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>59.153383835778</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>58.11476408318472</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>54.55905282853416</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>56.63928305804211</v>
+        <v>57.18707917026181</v>
       </c>
       <c r="C230">
-        <v>59.07950683206856</v>
+        <v>59.69386303978889</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>59.00589758218972</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>57.96207788973089</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>54.41191414309431</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>56.47867746425612</v>
+        <v>57.034786734995</v>
       </c>
       <c r="C231">
-        <v>58.92064950737576</v>
+        <v>59.53291937724624</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>58.85858385679415</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>57.80956280990547</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>54.2649470025379</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>56.31823446931514</v>
+        <v>56.8826679949437</v>
       </c>
       <c r="C232">
-        <v>58.76196229929606</v>
+        <v>59.37214426516759</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>58.71144256936289</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>57.65721874305822</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>54.11815133379731</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>56.15795393476532</v>
+        <v>56.73072285861636</v>
       </c>
       <c r="C233">
-        <v>58.60344508433641</v>
+        <v>59.2115375888253</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>58.5644736301094</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>57.50504558897875</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>53.97152706426615</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>55.99783572192943</v>
+        <v>56.57895123497603</v>
       </c>
       <c r="C234">
-        <v>58.44509773940252</v>
+        <v>59.05109923343552</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>58.41767694969214</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>57.35304324788449</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>53.82507412186295</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>55.83787969188143</v>
+        <v>56.42735303343309</v>
       </c>
       <c r="C235">
-        <v>58.28692014180045</v>
+        <v>58.89082908421319</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>58.27105243921279</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>57.20121162045435</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>53.67879243497608</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>55.67808570550323</v>
+        <v>56.27592816391069</v>
       </c>
       <c r="C236">
-        <v>58.12891216923857</v>
+        <v>58.73072702643738</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>58.12460001023964</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>57.04955060783512</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>53.5326819324426</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>55.5184536234804</v>
+        <v>56.12467653679913</v>
       </c>
       <c r="C237">
-        <v>57.97107369982943</v>
+        <v>58.57079294539037</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>57.97831957479083</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>56.89806011162642</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>53.3867425436007</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>55.35898330633038</v>
+        <v>55.97359806295756</v>
       </c>
       <c r="C238">
-        <v>57.8134046120914</v>
+        <v>58.41102672634247</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>57.83221104534034</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>56.74674003388038</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>53.24097419833002</v>
       </c>
     </row>
   </sheetData>
